--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861079.8837958814</v>
+        <v>883533.2590921415</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7599040.328529853</v>
+        <v>8240004.175586708</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>38.45107275891196</v>
       </c>
       <c r="F2" t="n">
-        <v>132.2320035102039</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.0080577057882</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>192.8717243028908</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>362.2456348435782</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>16.23111557624603</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>233.7215742077843</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>297.2637143717457</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>175.4783660273393</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>106.2783140457224</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>116.9961598500769</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>98.15366458399269</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>246.4813692350735</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
-        <v>138.8269632718605</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1859,10 +1861,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2050,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>146.3034971231916</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>58.31517967031825</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2524,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>203.5842803414587</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.7373013332753</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>47.3255698806609</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2950,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3007,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>54.28451967352942</v>
+        <v>37.7174186160078</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>57.24387488545712</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3424,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3472,22 +3474,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>6.464056402160558</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>110.4503017052509</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.3194424311361</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>133.7682651318491</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>63.12615032060513</v>
+        <v>21.34323154597165</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3952,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>13.08327551484874</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4028,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.91724806472493</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656.4044395283015</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C2" t="n">
-        <v>633.5441135820057</v>
+        <v>1668.858807301137</v>
       </c>
       <c r="D2" t="n">
-        <v>614.29189680741</v>
+        <v>1245.566186486137</v>
       </c>
       <c r="E2" t="n">
-        <v>592.3553609956716</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>458.7876806823343</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M2" t="n">
-        <v>728.2502693850971</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1402.051920498411</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>2075.853571611725</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2722.430913589148</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2243.150433230194</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1885.661018356443</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>1489.26966865679</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>1481.590073864941</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y2" t="n">
-        <v>1076.252803819832</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>644.9335448401225</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L3" t="n">
-        <v>644.9335448401225</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M3" t="n">
-        <v>1318.735195953437</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>1863.136248852293</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1625.199008700256</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>1453.226445579172</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>1289.909672705943</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>1123.701466858797</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>951.8396926333571</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>785.5827229275893</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2261.917905021356</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V4" t="n">
-        <v>2041.70774572258</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="W4" t="n">
-        <v>2041.70774572258</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>2041.70774572258</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>1815.364977412322</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>909.5265602751927</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>886.6662343288968</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>867.4140175543012</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>845.4774817425628</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>420.353299931963</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L5" t="n">
-        <v>1402.051920498411</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="M5" t="n">
-        <v>2075.853571611725</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>2075.853571611725</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.853571611725</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2138.783139103334</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2138.783139103334</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1742.391789403681</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.671790571428</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>925.3345205263187</v>
+        <v>2200.836591431896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="L6" t="n">
-        <v>725.1891208761992</v>
+        <v>966.8891568663047</v>
       </c>
       <c r="M6" t="n">
-        <v>725.1891208761992</v>
+        <v>1517.554691850743</v>
       </c>
       <c r="N6" t="n">
-        <v>1398.990771989513</v>
+        <v>2068.220226835181</v>
       </c>
       <c r="O6" t="n">
-        <v>1398.990771989513</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.6529666891494</v>
+        <v>884.1145108219154</v>
       </c>
       <c r="C7" t="n">
-        <v>699.6804035680653</v>
+        <v>712.1419477008313</v>
       </c>
       <c r="D7" t="n">
-        <v>536.363630694836</v>
+        <v>548.825174827602</v>
       </c>
       <c r="E7" t="n">
-        <v>536.363630694836</v>
+        <v>382.6169689804556</v>
       </c>
       <c r="F7" t="n">
-        <v>364.5018564693964</v>
+        <v>210.755194755016</v>
       </c>
       <c r="G7" t="n">
-        <v>198.2448867636286</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1944.483684597984</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1664.299236098289</v>
+        <v>2099.751015617892</v>
       </c>
       <c r="V7" t="n">
-        <v>1382.587768706318</v>
+        <v>1818.039548225921</v>
       </c>
       <c r="W7" t="n">
-        <v>1107.735364878831</v>
+        <v>1543.187144398434</v>
       </c>
       <c r="X7" t="n">
-        <v>871.6529666891494</v>
+        <v>1300.623247844239</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.6529666891494</v>
+        <v>1074.280479533981</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1930.883884970616</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C8" t="n">
-        <v>1908.02355902432</v>
+        <v>1369.185697387592</v>
       </c>
       <c r="D8" t="n">
-        <v>1607.757180871042</v>
+        <v>945.8930765725927</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.780241018899</v>
+        <v>923.9565407608543</v>
       </c>
       <c r="F8" t="n">
-        <v>756.6560592082994</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1402.051920498411</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>2048.629262475834</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2359.7087100587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2359.7087100587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2359.7087100587</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1947.988711226448</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1946.691845221742</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>326.146107551374</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>326.146107551374</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>515.5329466256644</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636.194223991583</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>464.221660870499</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>464.221660870499</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1105.100888856036</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>862.536992301841</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>636.194223991583</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1367.347341177754</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>940.446611191054</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>940.446611191054</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>514.4696713389116</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>89.34548952831176</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>89.34548952831176</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>728.2502693850971</v>
+        <v>1352.329819853103</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2502693850971</v>
+        <v>2356.615921272161</v>
       </c>
       <c r="N11" t="n">
-        <v>801.1857969764337</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O11" t="n">
-        <v>1474.987448089748</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P11" t="n">
-        <v>2148.789099203062</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2604.252974346646</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2604.252974346646</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2604.252974346646</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>2604.252974346646</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>2192.532975514393</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787.195705469284</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>735.6969123470089</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.334597738979</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>325.5662971342737</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5937340131897</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2064.726598204046</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1821.387250429946</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1541.20280193025</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1259.491334538279</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W13" t="n">
-        <v>984.6389307107922</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X13" t="n">
-        <v>742.0750341565973</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y13" t="n">
-        <v>515.7322658463394</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2053.61146926219</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.71073927549</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1203.41811846049</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>777.4411786083479</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>352.3169967977481</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>352.3169967977481</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>583.4696253673028</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M14" t="n">
-        <v>1257.271276480617</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>1931.072927593931</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2473.45983355372</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2473.45983355372</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2473.45983355372</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2473.45983355372</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2473.45983355372</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>936.8757529618962</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.7147283729668</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>483.7421652518827</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>320.4253923786534</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>154.217186531507</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>154.217186531507</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>154.217186531507</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1072.22346539529</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1072.22346539529</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>845.8806970850324</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5509,34 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L18" t="n">
-        <v>4143.246847793825</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M18" t="n">
-        <v>4143.246847793825</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N18" t="n">
-        <v>4143.246847793825</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O18" t="n">
-        <v>4398.937953252929</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5698,19 +5700,19 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1992.33777973203</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X19" t="n">
         <v>1601.992572952389</v>
@@ -5756,19 +5758,19 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5835,13 +5837,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1085.715267670341</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C22" t="n">
-        <v>913.7427045492574</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D22" t="n">
-        <v>750.4259316760281</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1275.881236382407</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6063,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>700.2342829360799</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1789.54922940895</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>537.2498287642214</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>537.2498287642214</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>373.9330558909921</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>373.9330558909921</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6172,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>537.2498287642214</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6306,19 +6308,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1529.586448057074</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>368.3282513713204</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C28" t="n">
-        <v>368.3282513713204</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3282513713204</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E28" t="n">
-        <v>368.3282513713204</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2234.912134878895</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1953.200667486924</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1678.348263659437</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1435.784367105243</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1209.441598794985</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>3306.448039710919</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N30" t="n">
-        <v>3306.448039710919</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
-        <v>3934.79247639015</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.167063056836</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C31" t="n">
-        <v>850.1944999357522</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
         <v>850.1944999357522</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1487.185435596389</v>
+        <v>1721.093541902729</v>
       </c>
       <c r="W31" t="n">
-        <v>1212.333031768902</v>
+        <v>1446.241138075242</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.333031768902</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.333031768902</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L32" t="n">
-        <v>1715.81204584877</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>326.3817789554925</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6940,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7017,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1019.275630082919</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C37" t="n">
-        <v>847.303066961835</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>683.9862940886057</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
         <v>683.9862940886057</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1822.202732251165</v>
+        <v>2229.147777604958</v>
       </c>
       <c r="V37" t="n">
-        <v>1822.202732251165</v>
+        <v>1947.436310212987</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.350328423678</v>
+        <v>1672.5839063855</v>
       </c>
       <c r="X37" t="n">
-        <v>1435.784367105243</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.441598794985</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="38">
@@ -7175,19 +7177,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7357,22 +7359,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>2112.580693338092</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>1837.728289510605</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1595.16439295641</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
         <v>1375.649804642131</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.743090736225</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.842360749525</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1402.051920498411</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>1402.051920498411</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>1931.072927593931</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2587.311453860008</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U41" t="n">
-        <v>2587.311453860008</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2587.311453860008</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.311453860008</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2175.591455027755</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2175.591455027755</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>388.6325606206753</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>388.6325606206753</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.597260506806</v>
+        <v>731.4956399344113</v>
       </c>
       <c r="C43" t="n">
-        <v>885.6246973857217</v>
+        <v>559.5230768133273</v>
       </c>
       <c r="D43" t="n">
-        <v>722.3079245124924</v>
+        <v>559.5230768133273</v>
       </c>
       <c r="E43" t="n">
-        <v>556.0997186653459</v>
+        <v>559.5230768133273</v>
       </c>
       <c r="F43" t="n">
-        <v>384.2379444399063</v>
+        <v>387.6613025878877</v>
       </c>
       <c r="G43" t="n">
-        <v>217.9809747341384</v>
+        <v>221.4043328821198</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1991.522297910811</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1991.522297910811</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.522297910811</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1716.669894083324</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>1474.105997529129</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1247.763229218871</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1781.293724229584</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1781.293724229584</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1358.001103414584</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>932.0241635624415</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>506.8999817518417</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>102.5609193412903</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>417.0520770886785</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>701.0259602492056</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1374.82761136252</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.629262475834</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>1781.293724229584</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>1781.293724229584</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1781.293724229584</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>61.8952612336948</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>652.3801878020344</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.315287654275</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.315287654275</v>
+        <v>3914.532297476635</v>
       </c>
       <c r="N45" t="n">
-        <v>1781.11693876759</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1781.11693876759</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1781.11693876759</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1037.861172536296</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>865.8886094152118</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
-        <v>702.5718365419825</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>536.363630694836</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>364.5018564693964</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>198.2448867636286</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2064.726598204046</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U46" t="n">
-        <v>1784.542149704351</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.830682312379</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="W46" t="n">
-        <v>1502.830682312379</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X46" t="n">
-        <v>1260.266785758185</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.027141248361</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>690.6837880500523</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>379.6111138811506</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>571.2430816467296</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8079,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>690.6837880500523</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>700.0307459106097</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820155</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>690.388049074267</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8538,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>214.3966179611061</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>214.212151707086</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>110.9518729267052</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8775,13 +8777,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N12" t="n">
-        <v>479.5629124478544</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>572.6766960644611</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>488.9136355342238</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735962</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9255,10 +9257,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>281.4457336203077</v>
+        <v>730.4358626697095</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9404,7 +9406,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9638,13 +9640,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1027.220259954781</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>145.8396822246347</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>657.863239903264</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10349,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L32" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10665,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>571.7556129878624</v>
+        <v>843.3909491248942</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>39.42764440110522</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>487.0847740255431</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>325.1543486553776</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
@@ -11370,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0454906053821</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>101.7201553957363</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>63.5299405605043</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.289991074478309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2769165173516</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>125.8003826660205</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>106.2309441183567</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.49506028569667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>230.0570341340378</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>224.609833044522</v>
+        <v>241.1769341020436</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>107.3022489032179</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>270.9185476125382</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>129.687955883402</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -25606,7 +25608,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.759898196019321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>84.94805011396406</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.23215548632203</v>
+        <v>121.0150742609555</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>281.8064192258568</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>53.328125375718</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.1620925624304</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>712864.361800337</v>
+        <v>706983.9809328859</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712864.361800337</v>
+        <v>706983.9809328859</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>712864.361800337</v>
+        <v>706983.9809328859</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>482019.000841406</v>
+        <v>707196.6267684348</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482019.0008414059</v>
+        <v>707196.6267684348</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>718180.8839175325</v>
+        <v>718180.8839175326</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718180.8839175325</v>
+        <v>718180.8839175326</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482019.0008414059</v>
+        <v>707196.6267684347</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482019.0008414058</v>
+        <v>707196.6267684348</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.6675069772</v>
       </c>
       <c r="C2" t="n">
-        <v>364026.6675069769</v>
+        <v>364026.667506977</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>235779.2447520151</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>235779.2447520151</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="G2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609047</v>
@@ -26335,10 +26337,10 @@
         <v>351269.0019609046</v>
       </c>
       <c r="J2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="K2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="L2" t="n">
         <v>351269.0019609045</v>
@@ -26350,10 +26352,10 @@
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>235779.2447520151</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="P2" t="n">
-        <v>235779.2447520152</v>
+        <v>345897.3934068672</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="C4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>175252.6676427299</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="F4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
@@ -26436,10 +26438,10 @@
         <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26448,16 +26450,16 @@
         <v>86696.74064784778</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="O4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="P4" t="n">
-        <v>58133.61734672054</v>
+        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114321.853785992</v>
+        <v>-81068.0456978085</v>
       </c>
       <c r="C6" t="n">
-        <v>113765.4499776919</v>
+        <v>105336.6877169287</v>
       </c>
       <c r="D6" t="n">
-        <v>113765.449977692</v>
+        <v>105336.6877169287</v>
       </c>
       <c r="E6" t="n">
-        <v>136264.6775187395</v>
+        <v>-22961.59759622527</v>
       </c>
       <c r="F6" t="n">
-        <v>136264.6775187395</v>
+        <v>184470.6900203358</v>
       </c>
       <c r="G6" t="n">
-        <v>22871.07831444118</v>
+        <v>179196.5770411457</v>
       </c>
       <c r="H6" t="n">
         <v>186822.1991246273</v>
@@ -26543,25 +26545,25 @@
         <v>186822.1991246271</v>
       </c>
       <c r="J6" t="n">
-        <v>8745.270635847279</v>
+        <v>41288.52918981074</v>
       </c>
       <c r="K6" t="n">
-        <v>186822.1991246271</v>
+        <v>186822.1991246272</v>
       </c>
       <c r="L6" t="n">
         <v>186822.199124627</v>
       </c>
       <c r="M6" t="n">
-        <v>186822.1991246272</v>
+        <v>13691.70791898755</v>
       </c>
       <c r="N6" t="n">
-        <v>186822.1991246272</v>
+        <v>186822.1991246271</v>
       </c>
       <c r="O6" t="n">
-        <v>136264.6775187395</v>
+        <v>184470.6900203357</v>
       </c>
       <c r="P6" t="n">
-        <v>136264.6775187397</v>
+        <v>184470.6900203357</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>383.2660976947091</v>
       </c>
       <c r="F2" t="n">
-        <v>288.6409364822898</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>60.88629501226313</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>79.23215548632132</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38.05003694286762</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>385.0527817684125</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>6.416683380868591</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>121.795980235104</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>245.3945739651544</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -28026,10 +28028,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>165.8255657434897</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>653.1084262398209</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>677.5156591963801</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>158.2737632597933</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>653.1084262398209</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>191.2998374487782</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>175.9001092744631</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>73.6722500922592</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N12" t="n">
-        <v>458.2198842343128</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>534.3646536318382</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>465.7417458120016</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>258.2738438980855</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>989.7889970553492</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>122.6677925024125</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>634.6913501810418</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L32" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>534.3646536318383</v>
+        <v>805.99998976887</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>17.02841056777188</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>286.8423062227546</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>459.5304038911526</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>883533.2590921415</v>
+        <v>882815.2689772828</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8240004.175586708</v>
+        <v>8240004.17558671</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -667,16 +667,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>38.45107275891196</v>
+        <v>333.3407674996177</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>163.5859921582953</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>192.8717243028908</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>368.803222276793</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.23111557624603</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1119,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>76.34947650093977</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>152.1354992040098</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>175.4783660273393</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>146.0964524577876</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>85.31356431670855</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>313.7451392166883</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1782,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>257.4638774372656</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1861,10 +1861,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.31517967031825</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2256,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>65.31159120929517</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>83.8245787659051</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2733,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>47.3255698806609</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>215.6004216660246</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>102.1509188080621</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>37.7174186160078</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>103.0087834376654</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3426,13 +3426,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>11.07215425001587</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>6.464056402160558</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>21.34323154597165</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2095.759537287837</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C2" t="n">
-        <v>1668.858807301137</v>
+        <v>860.7779992203289</v>
       </c>
       <c r="D2" t="n">
-        <v>1245.566186486137</v>
+        <v>437.4853784053291</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4330,13 +4330,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074144</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
         <v>1100.603903091853</v>
@@ -4345,7 +4345,7 @@
         <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4375,7 +4375,7 @@
         <v>2112.864363543668</v>
       </c>
       <c r="Y2" t="n">
-        <v>2111.567497538963</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K3" t="n">
-        <v>669.8354755761777</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="L3" t="n">
-        <v>1220.501010560616</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>1789.252181130334</v>
       </c>
       <c r="N3" t="n">
-        <v>1220.501010560616</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.672876544907</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1816.333528770807</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.571904688276</v>
+        <v>1536.149080271111</v>
       </c>
       <c r="V4" t="n">
-        <v>1981.571904688276</v>
+        <v>1536.149080271111</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1261.296676443624</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1018.732779889429</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>792.3900115791711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.988227140365</v>
+        <v>2095.759537287837</v>
       </c>
       <c r="C5" t="n">
-        <v>1354.087497153665</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D5" t="n">
-        <v>930.7948763386659</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>2200.836591431896</v>
+        <v>2111.567497538963</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>416.2236218818665</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K6" t="n">
-        <v>416.2236218818665</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L6" t="n">
-        <v>966.8891568663047</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M6" t="n">
-        <v>1517.554691850743</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>2068.220226835181</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.1145108219154</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>712.1419477008313</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>548.825174827602</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>382.6169689804556</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>210.755194755016</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924814</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924814</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2099.751015617892</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1818.039548225921</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W7" t="n">
-        <v>1543.187144398434</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X7" t="n">
-        <v>1300.623247844239</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1074.280479533981</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.046023333888</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.185697387592</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>945.8930765725927</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>923.9565407608543</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1811.894387625418</v>
+        <v>687.6423651808162</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M9" t="n">
-        <v>323.6423572907505</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
-        <v>756.3555336978366</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>861.7025734666139</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>689.7300103455299</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2077.33907826259</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1795.627610870619</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1520.775207043132</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1278.211310488937</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1051.868542178679</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958856</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>1352.329819853103</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M11" t="n">
-        <v>2356.615921272161</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3332.866979758862</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4178.011629909674</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5077,16 +5077,16 @@
         <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>962.2593607269207</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>1799.058168809827</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286538</v>
+        <v>920.1727262702736</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075698</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789901</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0769448789901</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.081047832659</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051723</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509774</v>
+        <v>1232.690812072156</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407195</v>
+        <v>1006.348043761898</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734694</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919694</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,19 +5281,19 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767978</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254679</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P14" t="n">
         <v>4430.205429563419</v>
@@ -5305,25 +5305,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>936.8757529618962</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1406.759588485828</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1870.905065348607</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>1039.461798911381</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
         <v>199.8455131387141</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1973.386836315387</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1698.5344324879</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1455.970535933705</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>1229.627767623447</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,10 +5524,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N17" t="n">
-        <v>3950.770911629316</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
         <v>3950.770911629316</v>
@@ -5594,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.799010768326</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.799010768326</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.799010768326</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>742.8905159778161</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C22" t="n">
-        <v>742.8905159778161</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D22" t="n">
-        <v>742.8905159778161</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5940,22 +5940,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1999.570775773452</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1719.386327273756</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6314,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1019.275630082919</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C28" t="n">
-        <v>847.303066961835</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D28" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>2234.912134878895</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1953.200667486924</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1678.348263659437</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>1435.784367105243</v>
+        <v>937.8112563098209</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.441598794985</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6545,25 +6545,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.511272808982</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>377.3472339020379</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>205.4854596765984</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6657,16 +6657,16 @@
         <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1721.093541902729</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1446.241138075242</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.677241521047</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.677241521047</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6703,19 +6703,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6782,13 +6782,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2131.627851306468</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>2131.627851306468</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1851.443402806772</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1569.731935414801</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>1294.879531587314</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>1068.536763277056</v>
       </c>
     </row>
     <row r="35">
@@ -6937,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7022,10 +7022,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1013.511272808982</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>279.7436773035316</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>113.4867075977638</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>2229.147777604958</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>1947.436310212987</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W37" t="n">
-        <v>1672.5839063855</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.020009831305</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.677241521047</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="38">
@@ -7177,25 +7177,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7262,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7420,16 +7420,16 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4886.290909067602</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
         <v>4886.290909067602</v>
@@ -7490,25 +7490,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>388.6325606206753</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>388.6325606206753</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1444.619098596721</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731.4956399344113</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5230768133273</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>559.5230768133273</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>559.5230768133273</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>387.6613025878877</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>221.4043328821198</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7596,25 +7596,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292118</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518018</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.966176018322</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.254708626351</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>1200.402304798864</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>957.8384082446693</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.4956399344113</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958856</v>
+        <v>255.3970861732024</v>
       </c>
       <c r="K44" t="n">
-        <v>1178.188711671385</v>
+        <v>970.9053941487015</v>
       </c>
       <c r="L44" t="n">
-        <v>2107.813759290661</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="M44" t="n">
-        <v>3112.09986070972</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
         <v>5003.847243949504</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.532297476635</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1183.258067403227</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.285504282143</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498426</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>2063.316311498426</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>2063.316311498426</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1842.330700979745</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>1599.766804425551</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.424036115293</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8060,19 +8060,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>379.6111138811506</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>461.4026962257058</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8081,7 +8081,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,13 +8218,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8233,10 +8233,10 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,10 +8294,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,10 +8306,10 @@
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>181.4456529820155</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>258.7570141181234</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>458.427044786356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8555,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>214.212151707086</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>951.5880457335786</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8929,13 +8929,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>476.2554127892232</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>543.6318887145185</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9008,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N17" t="n">
-        <v>882.1738474735962</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9242,13 +9242,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>730.4358626697095</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9491,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>224.2932485068573</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10430,16 +10430,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10670,13 +10670,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M36" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10825,13 +10825,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>843.3909491248942</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>39.42764440110522</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>186.308991095902</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>108.6376593882833</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>102.9507447082364</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>107.9720312369327</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23712,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>21.4304752807858</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>106.2309441183567</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>175.5943630870638</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>104.4397302590399</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>230.0570341340378</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>24.53783592262832</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.44348120064807</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>241.1769341020436</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>65.4249135683911</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.2861515569113</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25368,7 +25368,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>270.9185476125382</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>121.0150742609555</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>707196.6267684348</v>
+        <v>707196.6267684349</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718180.8839175325</v>
+        <v>718180.8839175326</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>718180.8839175326</v>
+        <v>718180.8839175325</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718180.8839175326</v>
+        <v>718180.8839175325</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>707196.6267684347</v>
+        <v>707196.6267684348</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069772</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="C2" t="n">
+        <v>364026.6675069771</v>
+      </c>
+      <c r="D2" t="n">
         <v>364026.667506977</v>
       </c>
-      <c r="D2" t="n">
-        <v>364026.6675069771</v>
-      </c>
       <c r="E2" t="n">
+        <v>345897.3934068671</v>
+      </c>
+      <c r="F2" t="n">
         <v>345897.3934068672</v>
       </c>
-      <c r="F2" t="n">
-        <v>345897.3934068673</v>
-      </c>
       <c r="G2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609048</v>
       </c>
       <c r="H2" t="n">
         <v>351269.0019609047</v>
       </c>
       <c r="I2" t="n">
+        <v>351269.0019609047</v>
+      </c>
+      <c r="J2" t="n">
         <v>351269.0019609046</v>
       </c>
-      <c r="J2" t="n">
-        <v>351269.0019609047</v>
-      </c>
       <c r="K2" t="n">
-        <v>351269.0019609047</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="L2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="M2" t="n">
         <v>351269.0019609046</v>
@@ -26352,7 +26352,7 @@
         <v>351269.0019609046</v>
       </c>
       <c r="O2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="P2" t="n">
         <v>345897.3934068672</v>
@@ -26426,10 +26426,10 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>85368.22527849904</v>
+        <v>85368.22527849907</v>
       </c>
       <c r="F4" t="n">
-        <v>85368.22527849904</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="G4" t="n">
         <v>86696.74064784776</v>
@@ -26438,28 +26438,28 @@
         <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
+        <v>85368.22527849904</v>
+      </c>
+      <c r="P4" t="n">
         <v>85368.22527849906</v>
-      </c>
-      <c r="P4" t="n">
-        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81068.0456978085</v>
+        <v>-81068.04569780853</v>
       </c>
       <c r="C6" t="n">
         <v>105336.6877169287</v>
       </c>
       <c r="D6" t="n">
-        <v>105336.6877169287</v>
+        <v>105336.6877169286</v>
       </c>
       <c r="E6" t="n">
-        <v>-22961.59759622527</v>
+        <v>-23034.1146926258</v>
       </c>
       <c r="F6" t="n">
-        <v>184470.6900203358</v>
+        <v>184398.1729239353</v>
       </c>
       <c r="G6" t="n">
-        <v>179196.5770411457</v>
+        <v>179145.5463789616</v>
       </c>
       <c r="H6" t="n">
-        <v>186822.1991246273</v>
+        <v>186771.1684624429</v>
       </c>
       <c r="I6" t="n">
-        <v>186822.1991246271</v>
+        <v>186771.1684624429</v>
       </c>
       <c r="J6" t="n">
-        <v>41288.52918981074</v>
+        <v>41237.49852762638</v>
       </c>
       <c r="K6" t="n">
-        <v>186822.1991246272</v>
+        <v>186771.1684624429</v>
       </c>
       <c r="L6" t="n">
-        <v>186822.199124627</v>
+        <v>186771.1684624428</v>
       </c>
       <c r="M6" t="n">
-        <v>13691.70791898755</v>
+        <v>13640.67725680328</v>
       </c>
       <c r="N6" t="n">
-        <v>186822.1991246271</v>
+        <v>186771.1684624428</v>
       </c>
       <c r="O6" t="n">
-        <v>184470.6900203357</v>
+        <v>184398.1729239354</v>
       </c>
       <c r="P6" t="n">
-        <v>184470.6900203357</v>
+        <v>184398.1729239353</v>
       </c>
     </row>
   </sheetData>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>88.37640295400331</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>383.2660976947091</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>4.847704847761236</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>79.23215548632132</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.82850041003985</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>385.0527817684125</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27830,7 +27830,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.7887810877131</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.514381444605</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>245.3945739651544</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>131.2861515569112</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34780,19 +34780,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>357.2118800478173</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>440.0596680121641</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34953,10 +34953,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,10 +35026,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2737632597933</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>510.5455990486533</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>238.1458997847901</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>175.9001092744631</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>928.4912652212506</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>437.9433703566003</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N17" t="n">
-        <v>844.8942246391501</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>188.528647712048</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M36" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>805.99998976887</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>17.02841056777188</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>71.06229757805201</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
